--- a/Tools/Configs/Board.xlsx
+++ b/Tools/Configs/Board.xlsx
@@ -1,93 +1,457 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION\Documents\GitHub\bp_demo\Tools\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287E2B5-BC67-4365-95FE-3298313E2C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
+    <sheet name="BlockType" sheetId="3" r:id="rId2"/>
+    <sheet name="Episode1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>episode</t>
   </si>
   <si>
     <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>episode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>difficulty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块类型</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>blockTypeName</t>
+  </si>
+  <si>
+    <t>blockNo</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>地雷</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>概率权重</t>
+  </si>
+  <si>
+    <t>最大数目</t>
+  </si>
+  <si>
+    <t>最小数目</t>
+  </si>
+  <si>
+    <t>blockType</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>maxCount</t>
+  </si>
+  <si>
+    <t>minCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,24 +459,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -196,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -370,70 +1020,196 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tools/Configs/Board.xlsx
+++ b/Tools/Configs/Board.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
-    <sheet name="BlockType" sheetId="3" r:id="rId2"/>
-    <sheet name="Episode1" sheetId="2" r:id="rId3"/>
+    <sheet name="Episode1" sheetId="2" r:id="rId2"/>
+    <sheet name="Firefly" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>关卡</t>
   </si>
@@ -45,46 +46,52 @@
     <t>地块类型</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>blockTypeName</t>
-  </si>
-  <si>
-    <t>blockNo</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>地雷</t>
-  </si>
-  <si>
-    <t>宝箱</t>
+    <t>配置ID</t>
   </si>
   <si>
     <t>概率权重</t>
   </si>
   <si>
-    <t>最大数目</t>
-  </si>
-  <si>
-    <t>最小数目</t>
+    <t>存在时间</t>
   </si>
   <si>
     <t>blockType</t>
   </si>
   <si>
+    <t>configID</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>maxCount</t>
-  </si>
-  <si>
-    <t>minCount</t>
+    <t>stayTime</t>
+  </si>
+  <si>
+    <t>Firefly</t>
+  </si>
+  <si>
+    <t>LanternFruit</t>
+  </si>
+  <si>
+    <t>Sheild</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Bramble</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>（萤火虫）配置ID</t>
+  </si>
+  <si>
+    <t>探测距离</t>
+  </si>
+  <si>
+    <t>checkDistance</t>
   </si>
 </sst>
 </file>
@@ -97,14 +104,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,48 +560,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,97 +614,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1067,13 +1067,35 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1086,63 +1108,128 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="1" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1154,62 +1241,60 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Tools/Configs/Board.xlsx
+++ b/Tools/Configs/Board.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION\Documents\GitHub\bp_demo\Tools\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2DABF-FADB-4562-A0D2-4563F957017E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
     <sheet name="Episode1" sheetId="2" r:id="rId2"/>
-    <sheet name="Firefly" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>关卡</t>
   </si>
@@ -52,6 +44,9 @@
     <t>概率权重</t>
   </si>
   <si>
+    <t>固定个数（填了固定个数则不会走概率权重）</t>
+  </si>
+  <si>
     <t>存在时间</t>
   </si>
   <si>
@@ -64,9 +59,15 @@
     <t>weight</t>
   </si>
   <si>
+    <t>fixedCount</t>
+  </si>
+  <si>
     <t>stayTime</t>
   </si>
   <si>
+    <t>Firefly</t>
+  </si>
+  <si>
     <t>LanternFruit</t>
   </si>
   <si>
@@ -79,20 +80,14 @@
     <t>Bramble</t>
   </si>
   <si>
-    <t>（萤火虫）配置ID</t>
-  </si>
-  <si>
-    <t>探测距离</t>
-  </si>
-  <si>
-    <t>checkDistance</t>
-  </si>
-  <si>
-    <t>fixedCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>K</t>
     </r>
     <r>
@@ -100,32 +95,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ey</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定个数（填了固定个数则不会走概率权重）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firefly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +124,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,27 +134,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -171,25 +477,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,21 +1039,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -483,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -494,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -505,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -517,28 +1109,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -549,32 +1142,32 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -589,9 +1182,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -606,9 +1199,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -623,9 +1216,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -640,9 +1233,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -657,9 +1250,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -674,9 +1267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -692,65 +1285,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>